--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09325694072704377</v>
+        <v>4.435541866844188</v>
       </c>
       <c r="C2" t="n">
         <v>0.3024050699141662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1650235214996689</v>
+        <v>0.1146083932799185</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1227561573640726</v>
+        <v>5.979947125139492</v>
       </c>
       <c r="C3" t="n">
         <v>0.4021707268688638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.283039998634834</v>
+        <v>0.1500954079710732</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1066933363738474</v>
+        <v>4.434412269604102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3440827995251922</v>
+        <v>0.301914518586692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4595727942834857</v>
+        <v>0.1138790913446852</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09748542509840714</v>
+        <v>4.629171537388581</v>
       </c>
       <c r="C5" t="n">
         <v>0.3158972861545685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4236650973741574</v>
+        <v>0.1195270458891904</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09370774544793407</v>
+        <v>4.460780667946769</v>
       </c>
       <c r="C6" t="n">
         <v>0.3034859144863045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4063189807347062</v>
+        <v>0.1146332510205234</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1055748756361602</v>
+        <v>5.117962657905947</v>
       </c>
       <c r="C7" t="n">
         <v>0.3498271287230948</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4479727725069796</v>
+        <v>0.1263848791614329</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1204026826801414</v>
+        <v>5.865473980908466</v>
       </c>
       <c r="C8" t="n">
         <v>0.3944531798618851</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5213339613777467</v>
+        <v>0.1470819963962231</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1224179806894709</v>
+        <v>5.960414393801525</v>
       </c>
       <c r="C9" t="n">
         <v>0.4009954016713005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5304066180084498</v>
+        <v>0.1496416310042097</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0161708906261106</v>
+        <v>5.787752634033428</v>
       </c>
       <c r="C10" t="n">
         <v>0.07363030303251704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08360199061530117</v>
+        <v>0.1451998702621222</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1743309855655988</v>
+        <v>7.868474280049195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5718256766149371</v>
+        <v>0.5777103963510773</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6356278970728466</v>
+        <v>0.1803819747722422</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1935054978238985</v>
+        <v>8.627877754116668</v>
       </c>
       <c r="C12" t="n">
         <v>0.6426572215052748</v>
       </c>
       <c r="D12" t="n">
-        <v>0.693827266326505</v>
+        <v>0.1957468859610579</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1696450838173521</v>
+        <v>7.586143428862917</v>
       </c>
       <c r="C13" t="n">
         <v>0.553822130857527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6244433828417281</v>
+        <v>0.1761718709865979</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.435541866844188</v>
+        <v>4.4355418668144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3024050699141662</v>
+        <v>0.3024050699121575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1146083932799185</v>
+        <v>0.1146083932792815</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.979947125139492</v>
+        <v>5.97990593962932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4021707268688638</v>
+        <v>0.4021685733114307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1500954079710732</v>
+        <v>0.150094902256048</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.434412269604102</v>
+        <v>4.43441226932912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301914518586692</v>
+        <v>0.3019145185676098</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1138790913446852</v>
+        <v>0.1138790913380392</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.629171537388581</v>
+        <v>4.629152957709747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3158972861545685</v>
+        <v>0.3158958591380221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1195270458891904</v>
+        <v>0.1195266020965856</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.460780667946769</v>
+        <v>4.506680507261651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3034859144863045</v>
+        <v>0.3067529652971118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1146332510205234</v>
+        <v>0.1158450208226143</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.117962657905947</v>
+        <v>5.11198517758392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3498271287230948</v>
+        <v>0.3493997257332322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1263848791614329</v>
+        <v>0.1262286887341474</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.865473980908466</v>
+        <v>5.867497616796735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3944531798618851</v>
+        <v>0.3945955045574091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1470819963962231</v>
+        <v>0.1471146811181376</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.960414393801525</v>
+        <v>5.954916531209348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4009954016713005</v>
+        <v>0.4006532898593535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1496416310042097</v>
+        <v>0.1495018590142614</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.787752634033428</v>
+        <v>6.359187386377879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07363030303251704</v>
+        <v>0.3884324682027064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1451998702621222</v>
+        <v>0.1464911514804961</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.868474280049195</v>
+        <v>7.834279471975523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5777103963510773</v>
+        <v>0.5748819558686633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1803819747722422</v>
+        <v>0.1799364765703809</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.627877754116668</v>
+        <v>7.801992659869643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6426572215052748</v>
+        <v>0.5721815099931152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1957468859610579</v>
+        <v>0.179629870239666</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.586143428862917</v>
+        <v>8.548247818664754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.553822130857527</v>
+        <v>0.6357051556365713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1761718709865979</v>
+        <v>0.1945343225729259</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.834279471975523</v>
+        <v>7.834769260144854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5748819558686633</v>
+        <v>0.5749154227259103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1799364765703809</v>
+        <v>0.1800100151885783</v>
       </c>
     </row>
     <row r="12">
